--- a/Test/MC_Ssf/T1/Sensors_data_1000030.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000030.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9838296419881296</v>
+        <v>0.9817136170895867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006248414516126587</v>
+        <v>0.0007066071161875236</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006119410296015296</v>
+        <v>0.02412581665749218</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.992330410757161</v>
+        <v>0.9897299630752204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002310492524221854</v>
+        <v>0.0003093887141393001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002138259379238949</v>
+        <v>-0.001959534512820937</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.9852366326713935</v>
+        <v>-0.5513564391365218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09309027478932008</v>
+        <v>0.07274507977473153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5823474170647547</v>
+        <v>0.5574586840938288</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.4675204763879004</v>
+        <v>-0.3824869603283028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06646964302809608</v>
+        <v>0.06261814824567415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4601737195352246</v>
+        <v>0.4280342282080762</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8128017968592781</v>
+        <v>0.8409599354893329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00557392513541143</v>
+        <v>0.004735501720852919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1676914034884156</v>
+        <v>-0.04307062737906253</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
